--- a/EMI.xlsx
+++ b/EMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Go\GoExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F6E66D-528D-44EA-9720-FE3DA6FB68BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D59DFA-5F75-450B-B1B6-DCA1229D9B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,11 @@
     <definedName name="cost">Sheet1!$B$1</definedName>
     <definedName name="downpercent">Sheet1!$B$2</definedName>
     <definedName name="emi">Sheet1!$B$9</definedName>
+    <definedName name="inmaptest">Sheet1!$C$15:$D$15</definedName>
     <definedName name="interest">Sheet1!$B$4</definedName>
     <definedName name="loanamnt">Sheet1!$B$5</definedName>
     <definedName name="maptest">Sheet1!$E$1:$F$10</definedName>
+    <definedName name="product">Sheet1!$D$16</definedName>
     <definedName name="tenure">Sheet1!$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -453,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,6 +589,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f>C15*D15</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
